--- a/documents/03_外部設計書_E4チーム[村人]0608.xlsx
+++ b/documents/03_外部設計書_E4チーム[村人]0608.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\【6月プロジェクト】\【作成ドキュメント】\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD80D4C-41A2-44F0-95FE-8909E0551415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92830AA7-575B-4539-9B60-FF5F684F6C3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="739" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="442">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -4303,6 +4303,17 @@
     <rPh sb="14" eb="16">
       <t>センタク</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>所属クラス</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>my_class</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -4885,7 +4896,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="221">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -5094,7 +5105,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5114,6 +5124,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5183,24 +5211,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5255,68 +5265,92 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5384,86 +5418,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -5503,6 +5513,10 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -22129,8 +22143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B129D9-E9B8-40FE-8458-3925CF9FEEEC}">
   <dimension ref="A1:AN122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -22139,158 +22153,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="99" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99" t="s">
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>306</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="106" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="106"/>
-      <c r="AH1" s="106" t="s">
+      <c r="AG1" s="111"/>
+      <c r="AH1" s="111" t="s">
         <v>307</v>
       </c>
-      <c r="AI1" s="106"/>
-      <c r="AJ1" s="106"/>
-      <c r="AK1" s="106"/>
-      <c r="AL1" s="106"/>
-      <c r="AM1" s="106"/>
-      <c r="AN1" s="107"/>
+      <c r="AI1" s="111"/>
+      <c r="AJ1" s="111"/>
+      <c r="AK1" s="111"/>
+      <c r="AL1" s="111"/>
+      <c r="AM1" s="111"/>
+      <c r="AN1" s="112"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="108" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108" t="s">
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="109" t="s">
+      <c r="X2" s="113"/>
+      <c r="Y2" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="110" t="s">
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="110"/>
-      <c r="AH2" s="111" t="s">
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="110"/>
-      <c r="AJ2" s="110"/>
-      <c r="AK2" s="110"/>
-      <c r="AL2" s="110"/>
-      <c r="AM2" s="110"/>
-      <c r="AN2" s="112"/>
+      <c r="AI2" s="115"/>
+      <c r="AJ2" s="115"/>
+      <c r="AK2" s="115"/>
+      <c r="AL2" s="115"/>
+      <c r="AM2" s="115"/>
+      <c r="AN2" s="117"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="100" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="101"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="104"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="104"/>
-      <c r="AL3" s="104"/>
-      <c r="AM3" s="104"/>
-      <c r="AN3" s="105"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="110"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="61"/>
@@ -25788,12 +25802,12 @@
       <c r="E88" s="77"/>
       <c r="F88" s="77"/>
       <c r="G88" s="75"/>
-      <c r="H88" s="116" t="s">
+      <c r="H88" s="89" t="s">
         <v>288</v>
       </c>
-      <c r="I88" s="117"/>
-      <c r="J88" s="117"/>
-      <c r="K88" s="118"/>
+      <c r="I88" s="90"/>
+      <c r="J88" s="90"/>
+      <c r="K88" s="91"/>
       <c r="L88" s="79" t="s">
         <v>283</v>
       </c>
@@ -25840,12 +25854,12 @@
       <c r="E89" s="77"/>
       <c r="F89" s="77"/>
       <c r="G89" s="75"/>
-      <c r="H89" s="116" t="s">
+      <c r="H89" s="89" t="s">
         <v>289</v>
       </c>
-      <c r="I89" s="117"/>
-      <c r="J89" s="117"/>
-      <c r="K89" s="118"/>
+      <c r="I89" s="90"/>
+      <c r="J89" s="90"/>
+      <c r="K89" s="91"/>
       <c r="L89" s="79" t="s">
         <v>283</v>
       </c>
@@ -25892,12 +25906,12 @@
       <c r="E90" s="77"/>
       <c r="F90" s="77"/>
       <c r="G90" s="75"/>
-      <c r="H90" s="116" t="s">
+      <c r="H90" s="89" t="s">
         <v>309</v>
       </c>
-      <c r="I90" s="117"/>
-      <c r="J90" s="117"/>
-      <c r="K90" s="118"/>
+      <c r="I90" s="90"/>
+      <c r="J90" s="90"/>
+      <c r="K90" s="91"/>
       <c r="L90" s="79" t="s">
         <v>234</v>
       </c>
@@ -25919,7 +25933,7 @@
       <c r="X90" s="77"/>
       <c r="Y90" s="77"/>
       <c r="Z90" s="75"/>
-      <c r="AA90" s="83" t="s">
+      <c r="AA90" s="82" t="s">
         <v>324</v>
       </c>
       <c r="AB90" s="77"/>
@@ -25948,12 +25962,12 @@
       <c r="E91" s="77"/>
       <c r="F91" s="77"/>
       <c r="G91" s="75"/>
-      <c r="H91" s="113" t="s">
+      <c r="H91" s="92" t="s">
         <v>344</v>
       </c>
-      <c r="I91" s="114"/>
-      <c r="J91" s="114"/>
-      <c r="K91" s="115"/>
+      <c r="I91" s="93"/>
+      <c r="J91" s="93"/>
+      <c r="K91" s="94"/>
       <c r="L91" s="79" t="s">
         <v>234</v>
       </c>
@@ -25975,7 +25989,7 @@
       <c r="X91" s="77"/>
       <c r="Y91" s="77"/>
       <c r="Z91" s="75"/>
-      <c r="AA91" s="83" t="s">
+      <c r="AA91" s="82" t="s">
         <v>348</v>
       </c>
       <c r="AB91" s="77"/>
@@ -26004,12 +26018,12 @@
       <c r="E92" s="77"/>
       <c r="F92" s="77"/>
       <c r="G92" s="75"/>
-      <c r="H92" s="116" t="s">
+      <c r="H92" s="89" t="s">
         <v>288</v>
       </c>
-      <c r="I92" s="117"/>
-      <c r="J92" s="117"/>
-      <c r="K92" s="118"/>
+      <c r="I92" s="90"/>
+      <c r="J92" s="90"/>
+      <c r="K92" s="91"/>
       <c r="L92" s="79" t="s">
         <v>283</v>
       </c>
@@ -26056,12 +26070,12 @@
       <c r="E93" s="77"/>
       <c r="F93" s="77"/>
       <c r="G93" s="75"/>
-      <c r="H93" s="116" t="s">
+      <c r="H93" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="I93" s="117"/>
-      <c r="J93" s="117"/>
-      <c r="K93" s="118"/>
+      <c r="I93" s="90"/>
+      <c r="J93" s="90"/>
+      <c r="K93" s="91"/>
       <c r="L93" s="79" t="s">
         <v>234</v>
       </c>
@@ -26108,12 +26122,12 @@
       <c r="E94" s="77"/>
       <c r="F94" s="77"/>
       <c r="G94" s="75"/>
-      <c r="H94" s="116" t="s">
+      <c r="H94" s="89" t="s">
         <v>167</v>
       </c>
-      <c r="I94" s="117"/>
-      <c r="J94" s="117"/>
-      <c r="K94" s="118"/>
+      <c r="I94" s="90"/>
+      <c r="J94" s="90"/>
+      <c r="K94" s="91"/>
       <c r="L94" s="79" t="s">
         <v>234</v>
       </c>
@@ -26160,19 +26174,19 @@
       <c r="E95" s="77"/>
       <c r="F95" s="77"/>
       <c r="G95" s="75"/>
-      <c r="H95" s="113" t="s">
-        <v>345</v>
-      </c>
-      <c r="I95" s="114"/>
-      <c r="J95" s="114"/>
-      <c r="K95" s="115"/>
+      <c r="H95" s="89" t="s">
+        <v>440</v>
+      </c>
+      <c r="I95" s="90"/>
+      <c r="J95" s="90"/>
+      <c r="K95" s="91"/>
       <c r="L95" s="79" t="s">
         <v>234</v>
       </c>
       <c r="M95" s="77"/>
       <c r="N95" s="75"/>
       <c r="O95" s="79" t="s">
-        <v>385</v>
+        <v>87</v>
       </c>
       <c r="P95" s="77"/>
       <c r="Q95" s="77"/>
@@ -26187,8 +26201,8 @@
       <c r="X95" s="77"/>
       <c r="Y95" s="77"/>
       <c r="Z95" s="75"/>
-      <c r="AA95" s="83" t="s">
-        <v>349</v>
+      <c r="AA95" s="79" t="s">
+        <v>441</v>
       </c>
       <c r="AB95" s="77"/>
       <c r="AC95" s="75"/>
@@ -26216,12 +26230,12 @@
       <c r="E96" s="77"/>
       <c r="F96" s="77"/>
       <c r="G96" s="75"/>
-      <c r="H96" s="113" t="s">
-        <v>346</v>
-      </c>
-      <c r="I96" s="114"/>
-      <c r="J96" s="114"/>
-      <c r="K96" s="115"/>
+      <c r="H96" s="92" t="s">
+        <v>345</v>
+      </c>
+      <c r="I96" s="93"/>
+      <c r="J96" s="93"/>
+      <c r="K96" s="94"/>
       <c r="L96" s="79" t="s">
         <v>234</v>
       </c>
@@ -26243,8 +26257,8 @@
       <c r="X96" s="77"/>
       <c r="Y96" s="77"/>
       <c r="Z96" s="75"/>
-      <c r="AA96" s="83" t="s">
-        <v>327</v>
+      <c r="AA96" s="82" t="s">
+        <v>349</v>
       </c>
       <c r="AB96" s="77"/>
       <c r="AC96" s="75"/>
@@ -26272,19 +26286,19 @@
       <c r="E97" s="77"/>
       <c r="F97" s="77"/>
       <c r="G97" s="75"/>
-      <c r="H97" s="113" t="s">
-        <v>347</v>
-      </c>
-      <c r="I97" s="114"/>
-      <c r="J97" s="114"/>
-      <c r="K97" s="115"/>
+      <c r="H97" s="92" t="s">
+        <v>346</v>
+      </c>
+      <c r="I97" s="93"/>
+      <c r="J97" s="93"/>
+      <c r="K97" s="94"/>
       <c r="L97" s="79" t="s">
         <v>234</v>
       </c>
       <c r="M97" s="77"/>
       <c r="N97" s="75"/>
       <c r="O97" s="79" t="s">
-        <v>355</v>
+        <v>385</v>
       </c>
       <c r="P97" s="77"/>
       <c r="Q97" s="77"/>
@@ -26299,8 +26313,8 @@
       <c r="X97" s="77"/>
       <c r="Y97" s="77"/>
       <c r="Z97" s="75"/>
-      <c r="AA97" s="83" t="s">
-        <v>350</v>
+      <c r="AA97" s="82" t="s">
+        <v>327</v>
       </c>
       <c r="AB97" s="77"/>
       <c r="AC97" s="75"/>
@@ -26323,24 +26337,24 @@
         <v>11</v>
       </c>
       <c r="D98" s="79" t="s">
-        <v>23</v>
+        <v>286</v>
       </c>
       <c r="E98" s="77"/>
       <c r="F98" s="77"/>
       <c r="G98" s="75"/>
-      <c r="H98" s="116" t="s">
-        <v>166</v>
-      </c>
-      <c r="I98" s="117"/>
-      <c r="J98" s="117"/>
-      <c r="K98" s="118"/>
+      <c r="H98" s="92" t="s">
+        <v>347</v>
+      </c>
+      <c r="I98" s="93"/>
+      <c r="J98" s="93"/>
+      <c r="K98" s="94"/>
       <c r="L98" s="79" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M98" s="77"/>
       <c r="N98" s="75"/>
       <c r="O98" s="79" t="s">
-        <v>87</v>
+        <v>355</v>
       </c>
       <c r="P98" s="77"/>
       <c r="Q98" s="77"/>
@@ -26349,11 +26363,15 @@
       <c r="T98" s="75"/>
       <c r="U98" s="79"/>
       <c r="V98" s="75"/>
-      <c r="W98" s="79"/>
+      <c r="W98" s="79" t="s">
+        <v>351</v>
+      </c>
       <c r="X98" s="77"/>
       <c r="Y98" s="77"/>
       <c r="Z98" s="75"/>
-      <c r="AA98" s="79"/>
+      <c r="AA98" s="82" t="s">
+        <v>350</v>
+      </c>
       <c r="AB98" s="77"/>
       <c r="AC98" s="75"/>
       <c r="AD98" s="79"/>
@@ -26375,19 +26393,19 @@
         <v>12</v>
       </c>
       <c r="D99" s="79" t="s">
-        <v>285</v>
+        <v>23</v>
       </c>
       <c r="E99" s="77"/>
       <c r="F99" s="77"/>
       <c r="G99" s="75"/>
-      <c r="H99" s="116" t="s">
-        <v>168</v>
-      </c>
-      <c r="I99" s="117"/>
-      <c r="J99" s="117"/>
-      <c r="K99" s="118"/>
+      <c r="H99" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="I99" s="90"/>
+      <c r="J99" s="90"/>
+      <c r="K99" s="91"/>
       <c r="L99" s="79" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M99" s="77"/>
       <c r="N99" s="75"/>
@@ -26427,17 +26445,17 @@
         <v>13</v>
       </c>
       <c r="D100" s="79" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E100" s="77"/>
       <c r="F100" s="77"/>
       <c r="G100" s="75"/>
-      <c r="H100" s="116" t="s">
-        <v>167</v>
-      </c>
-      <c r="I100" s="117"/>
-      <c r="J100" s="117"/>
-      <c r="K100" s="118"/>
+      <c r="H100" s="89" t="s">
+        <v>168</v>
+      </c>
+      <c r="I100" s="90"/>
+      <c r="J100" s="90"/>
+      <c r="K100" s="91"/>
       <c r="L100" s="79" t="s">
         <v>234</v>
       </c>
@@ -26484,14 +26502,14 @@
       <c r="E101" s="77"/>
       <c r="F101" s="77"/>
       <c r="G101" s="75"/>
-      <c r="H101" s="116" t="s">
-        <v>166</v>
-      </c>
-      <c r="I101" s="117"/>
-      <c r="J101" s="117"/>
-      <c r="K101" s="118"/>
+      <c r="H101" s="89" t="s">
+        <v>167</v>
+      </c>
+      <c r="I101" s="90"/>
+      <c r="J101" s="90"/>
+      <c r="K101" s="91"/>
       <c r="L101" s="79" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M101" s="77"/>
       <c r="N101" s="75"/>
@@ -26527,19 +26545,29 @@
     <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="65"/>
       <c r="B102" s="74"/>
-      <c r="C102" s="78"/>
-      <c r="D102" s="113"/>
-      <c r="E102" s="114"/>
-      <c r="F102" s="114"/>
-      <c r="G102" s="115"/>
-      <c r="H102" s="35"/>
-      <c r="I102" s="80"/>
-      <c r="J102" s="77"/>
-      <c r="K102" s="75"/>
-      <c r="L102" s="79"/>
+      <c r="C102" s="78">
+        <v>15</v>
+      </c>
+      <c r="D102" s="79" t="s">
+        <v>284</v>
+      </c>
+      <c r="E102" s="77"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="75"/>
+      <c r="H102" s="89" t="s">
+        <v>166</v>
+      </c>
+      <c r="I102" s="90"/>
+      <c r="J102" s="90"/>
+      <c r="K102" s="91"/>
+      <c r="L102" s="79" t="s">
+        <v>237</v>
+      </c>
       <c r="M102" s="77"/>
       <c r="N102" s="75"/>
-      <c r="O102" s="79"/>
+      <c r="O102" s="79" t="s">
+        <v>87</v>
+      </c>
       <c r="P102" s="77"/>
       <c r="Q102" s="77"/>
       <c r="R102" s="75"/>
@@ -26551,7 +26579,7 @@
       <c r="X102" s="77"/>
       <c r="Y102" s="77"/>
       <c r="Z102" s="75"/>
-      <c r="AA102" s="35"/>
+      <c r="AA102" s="79"/>
       <c r="AB102" s="77"/>
       <c r="AC102" s="75"/>
       <c r="AD102" s="79"/>
@@ -26570,10 +26598,10 @@
       <c r="A103" s="65"/>
       <c r="B103" s="74"/>
       <c r="C103" s="78"/>
-      <c r="D103" s="113"/>
-      <c r="E103" s="114"/>
-      <c r="F103" s="114"/>
-      <c r="G103" s="115"/>
+      <c r="D103" s="92"/>
+      <c r="E103" s="93"/>
+      <c r="F103" s="93"/>
+      <c r="G103" s="94"/>
       <c r="H103" s="35"/>
       <c r="I103" s="80"/>
       <c r="J103" s="77"/>
@@ -26612,10 +26640,10 @@
       <c r="A104" s="65"/>
       <c r="B104" s="74"/>
       <c r="C104" s="78"/>
-      <c r="D104" s="113"/>
-      <c r="E104" s="114"/>
-      <c r="F104" s="114"/>
-      <c r="G104" s="115"/>
+      <c r="D104" s="92"/>
+      <c r="E104" s="93"/>
+      <c r="F104" s="93"/>
+      <c r="G104" s="94"/>
       <c r="H104" s="35"/>
       <c r="I104" s="80"/>
       <c r="J104" s="77"/>
@@ -26654,10 +26682,10 @@
       <c r="A105" s="65"/>
       <c r="B105" s="74"/>
       <c r="C105" s="78"/>
-      <c r="D105" s="113"/>
-      <c r="E105" s="114"/>
-      <c r="F105" s="114"/>
-      <c r="G105" s="115"/>
+      <c r="D105" s="92"/>
+      <c r="E105" s="93"/>
+      <c r="F105" s="93"/>
+      <c r="G105" s="94"/>
       <c r="H105" s="35"/>
       <c r="I105" s="80"/>
       <c r="J105" s="77"/>
@@ -26696,10 +26724,10 @@
       <c r="A106" s="65"/>
       <c r="B106" s="74"/>
       <c r="C106" s="78"/>
-      <c r="D106" s="113"/>
-      <c r="E106" s="114"/>
-      <c r="F106" s="114"/>
-      <c r="G106" s="115"/>
+      <c r="D106" s="92"/>
+      <c r="E106" s="93"/>
+      <c r="F106" s="93"/>
+      <c r="G106" s="94"/>
       <c r="H106" s="35"/>
       <c r="I106" s="80"/>
       <c r="J106" s="77"/>
@@ -26738,11 +26766,11 @@
       <c r="A107" s="65"/>
       <c r="B107" s="74"/>
       <c r="C107" s="78"/>
-      <c r="D107" s="79"/>
-      <c r="E107" s="77"/>
-      <c r="F107" s="77"/>
-      <c r="G107" s="78"/>
-      <c r="H107" s="79"/>
+      <c r="D107" s="92"/>
+      <c r="E107" s="93"/>
+      <c r="F107" s="93"/>
+      <c r="G107" s="94"/>
+      <c r="H107" s="35"/>
       <c r="I107" s="80"/>
       <c r="J107" s="77"/>
       <c r="K107" s="75"/>
@@ -26761,7 +26789,7 @@
       <c r="X107" s="77"/>
       <c r="Y107" s="77"/>
       <c r="Z107" s="75"/>
-      <c r="AA107" s="79"/>
+      <c r="AA107" s="35"/>
       <c r="AB107" s="77"/>
       <c r="AC107" s="75"/>
       <c r="AD107" s="79"/>
@@ -27325,8 +27353,8 @@
     <row r="121" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="68"/>
       <c r="B121" s="69"/>
-      <c r="C121" s="82"/>
-      <c r="D121" s="69"/>
+      <c r="C121" s="219"/>
+      <c r="D121" s="220"/>
       <c r="E121" s="77"/>
       <c r="F121" s="69"/>
       <c r="G121" s="69"/>
@@ -27369,26 +27397,7 @@
       <c r="E122" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="H101:K101"/>
-    <mergeCell ref="H95:K95"/>
-    <mergeCell ref="H96:K96"/>
-    <mergeCell ref="H97:K97"/>
-    <mergeCell ref="H94:K94"/>
-    <mergeCell ref="H98:K98"/>
-    <mergeCell ref="H99:K99"/>
-    <mergeCell ref="H100:K100"/>
-    <mergeCell ref="H93:K93"/>
-    <mergeCell ref="H88:K88"/>
-    <mergeCell ref="H89:K89"/>
-    <mergeCell ref="H90:K90"/>
-    <mergeCell ref="H91:K91"/>
-    <mergeCell ref="H92:K92"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D106:G106"/>
+  <mergeCells count="35">
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:V1"/>
@@ -27404,6 +27413,26 @@
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="D103:G103"/>
+    <mergeCell ref="D104:G104"/>
+    <mergeCell ref="D105:G105"/>
+    <mergeCell ref="D106:G106"/>
+    <mergeCell ref="D107:G107"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="H95:K95"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -27429,156 +27458,156 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="99" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104" t="s">
         <v>233</v>
       </c>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99" t="s">
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="126" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="119" t="s">
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="118" t="s">
         <v>212</v>
       </c>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="120"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="119"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="108" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="121" t="s">
+      <c r="X2" s="113"/>
+      <c r="Y2" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="121"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="122" t="s">
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="123" t="s">
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="124"/>
-      <c r="AJ2" s="124"/>
-      <c r="AK2" s="124"/>
-      <c r="AL2" s="124"/>
-      <c r="AM2" s="124"/>
-      <c r="AN2" s="125"/>
+      <c r="AI2" s="123"/>
+      <c r="AJ2" s="123"/>
+      <c r="AK2" s="123"/>
+      <c r="AL2" s="123"/>
+      <c r="AM2" s="123"/>
+      <c r="AN2" s="124"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="100" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="101"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="104"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="104"/>
-      <c r="AL3" s="104"/>
-      <c r="AM3" s="104"/>
-      <c r="AN3" s="105"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="110"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="30"/>
@@ -32080,158 +32109,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="99" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="104" t="s">
         <v>211</v>
       </c>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104" t="s">
         <v>210</v>
       </c>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99" t="s">
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="126" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="119" t="s">
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="118" t="s">
         <v>209</v>
       </c>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="120"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="119"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="108" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113" t="s">
         <v>208</v>
       </c>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108" t="s">
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="128" t="s">
+      <c r="X2" s="113"/>
+      <c r="Y2" s="127" t="s">
         <v>253</v>
       </c>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="122" t="s">
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="129" t="s">
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="130"/>
-      <c r="AJ2" s="130"/>
-      <c r="AK2" s="130"/>
-      <c r="AL2" s="130"/>
-      <c r="AM2" s="130"/>
-      <c r="AN2" s="131"/>
+      <c r="AI2" s="129"/>
+      <c r="AJ2" s="129"/>
+      <c r="AK2" s="129"/>
+      <c r="AL2" s="129"/>
+      <c r="AM2" s="129"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="100" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="101"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="104"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="104"/>
-      <c r="AL3" s="104"/>
-      <c r="AM3" s="104"/>
-      <c r="AN3" s="105"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="110"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="30"/>
@@ -33911,10 +33940,10 @@
     <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
-      <c r="C46" s="127" t="s">
+      <c r="C46" s="126" t="s">
         <v>207</v>
       </c>
-      <c r="D46" s="127"/>
+      <c r="D46" s="126"/>
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
       <c r="G46" s="30"/>
@@ -36583,158 +36612,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="99" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104" t="s">
         <v>432</v>
       </c>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99" t="s">
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="126" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="119" t="s">
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="118" t="s">
         <v>212</v>
       </c>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="120"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="119"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="108" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108" t="s">
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="132" t="s">
+      <c r="X2" s="113"/>
+      <c r="Y2" s="131" t="s">
         <v>431</v>
       </c>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="122" t="s">
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="130" t="s">
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="129" t="s">
         <v>433</v>
       </c>
-      <c r="AI2" s="130"/>
-      <c r="AJ2" s="130"/>
-      <c r="AK2" s="130"/>
-      <c r="AL2" s="130"/>
-      <c r="AM2" s="130"/>
-      <c r="AN2" s="131"/>
+      <c r="AI2" s="129"/>
+      <c r="AJ2" s="129"/>
+      <c r="AK2" s="129"/>
+      <c r="AL2" s="129"/>
+      <c r="AM2" s="129"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="100" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="101"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="104"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="104"/>
-      <c r="AL3" s="104"/>
-      <c r="AM3" s="104"/>
-      <c r="AN3" s="105"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="110"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="30"/>
@@ -36901,7 +36930,7 @@
       <c r="AE8" s="30"/>
       <c r="AF8" s="30"/>
       <c r="AG8" s="30"/>
-      <c r="AH8" s="88" t="s">
+      <c r="AH8" s="87" t="s">
         <v>430</v>
       </c>
       <c r="AI8" s="30"/>
@@ -38284,7 +38313,7 @@
       <c r="V42" s="30"/>
       <c r="W42" s="30"/>
       <c r="X42" s="30"/>
-      <c r="Y42" s="88"/>
+      <c r="Y42" s="87"/>
       <c r="Z42" s="30"/>
       <c r="AA42" s="30"/>
       <c r="AB42" s="30"/>
@@ -40472,7 +40501,7 @@
       <c r="E91" s="36"/>
       <c r="F91" s="36"/>
       <c r="G91" s="39"/>
-      <c r="H91" s="89" t="s">
+      <c r="H91" s="88" t="s">
         <v>391</v>
       </c>
       <c r="I91" s="40"/>
@@ -40522,7 +40551,7 @@
       <c r="E92" s="36"/>
       <c r="F92" s="36"/>
       <c r="G92" s="39"/>
-      <c r="H92" s="89" t="s">
+      <c r="H92" s="88" t="s">
         <v>390</v>
       </c>
       <c r="I92" s="40"/>
@@ -40572,7 +40601,7 @@
       <c r="E93" s="36"/>
       <c r="F93" s="36"/>
       <c r="G93" s="39"/>
-      <c r="H93" s="89" t="s">
+      <c r="H93" s="88" t="s">
         <v>389</v>
       </c>
       <c r="I93" s="40"/>
@@ -41388,158 +41417,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="99" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104" t="s">
         <v>102</v>
       </c>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99" t="s">
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="126" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="119" t="s">
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="118" t="s">
         <v>212</v>
       </c>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="120"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="119"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="108" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113" t="s">
         <v>208</v>
       </c>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108" t="s">
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="129" t="s">
+      <c r="X2" s="113"/>
+      <c r="Y2" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="130"/>
-      <c r="AA2" s="130"/>
-      <c r="AB2" s="130"/>
-      <c r="AC2" s="130"/>
-      <c r="AD2" s="130"/>
-      <c r="AE2" s="131"/>
-      <c r="AF2" s="122" t="s">
+      <c r="Z2" s="129"/>
+      <c r="AA2" s="129"/>
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="129"/>
+      <c r="AD2" s="129"/>
+      <c r="AE2" s="130"/>
+      <c r="AF2" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="129" t="s">
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="130"/>
-      <c r="AJ2" s="130"/>
-      <c r="AK2" s="130"/>
-      <c r="AL2" s="130"/>
-      <c r="AM2" s="130"/>
-      <c r="AN2" s="131"/>
+      <c r="AI2" s="129"/>
+      <c r="AJ2" s="129"/>
+      <c r="AK2" s="129"/>
+      <c r="AL2" s="129"/>
+      <c r="AM2" s="129"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="100" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="101"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="104"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="104"/>
-      <c r="AL3" s="104"/>
-      <c r="AM3" s="104"/>
-      <c r="AN3" s="105"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="110"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="30"/>
@@ -46028,158 +46057,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="99" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99" t="s">
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>98</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="126" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="119" t="s">
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="118" t="s">
         <v>212</v>
       </c>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="120"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="119"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="108" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108" t="s">
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="133" t="s">
+      <c r="X2" s="113"/>
+      <c r="Y2" s="132" t="s">
         <v>253</v>
       </c>
-      <c r="Z2" s="133"/>
-      <c r="AA2" s="133"/>
-      <c r="AB2" s="133"/>
-      <c r="AC2" s="133"/>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="133"/>
-      <c r="AF2" s="122" t="s">
+      <c r="Z2" s="132"/>
+      <c r="AA2" s="132"/>
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="132"/>
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="132"/>
+      <c r="AF2" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="129" t="s">
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="130"/>
-      <c r="AJ2" s="130"/>
-      <c r="AK2" s="130"/>
-      <c r="AL2" s="130"/>
-      <c r="AM2" s="130"/>
-      <c r="AN2" s="131"/>
+      <c r="AI2" s="129"/>
+      <c r="AJ2" s="129"/>
+      <c r="AK2" s="129"/>
+      <c r="AL2" s="129"/>
+      <c r="AM2" s="129"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="100" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="101"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="103"/>
-      <c r="O3" s="104"/>
-      <c r="P3" s="104"/>
-      <c r="Q3" s="104"/>
-      <c r="R3" s="104"/>
-      <c r="S3" s="104"/>
-      <c r="T3" s="104"/>
-      <c r="U3" s="104"/>
-      <c r="V3" s="104"/>
-      <c r="W3" s="104"/>
-      <c r="X3" s="104"/>
-      <c r="Y3" s="104"/>
-      <c r="Z3" s="104"/>
-      <c r="AA3" s="104"/>
-      <c r="AB3" s="104"/>
-      <c r="AC3" s="104"/>
-      <c r="AD3" s="104"/>
-      <c r="AE3" s="104"/>
-      <c r="AF3" s="104"/>
-      <c r="AG3" s="104"/>
-      <c r="AH3" s="104"/>
-      <c r="AI3" s="104"/>
-      <c r="AJ3" s="104"/>
-      <c r="AK3" s="104"/>
-      <c r="AL3" s="104"/>
-      <c r="AM3" s="104"/>
-      <c r="AN3" s="105"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="108"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="109"/>
+      <c r="T3" s="109"/>
+      <c r="U3" s="109"/>
+      <c r="V3" s="109"/>
+      <c r="W3" s="109"/>
+      <c r="X3" s="109"/>
+      <c r="Y3" s="109"/>
+      <c r="Z3" s="109"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="109"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109"/>
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109"/>
+      <c r="AJ3" s="109"/>
+      <c r="AK3" s="109"/>
+      <c r="AL3" s="109"/>
+      <c r="AM3" s="109"/>
+      <c r="AN3" s="110"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="30"/>
@@ -49554,7 +49583,7 @@
       <c r="E84" s="36"/>
       <c r="F84" s="36"/>
       <c r="G84" s="37"/>
-      <c r="H84" s="83" t="s">
+      <c r="H84" s="82" t="s">
         <v>361</v>
       </c>
       <c r="I84" s="40"/>
@@ -49579,7 +49608,7 @@
       <c r="X84" s="36"/>
       <c r="Y84" s="36"/>
       <c r="Z84" s="37"/>
-      <c r="AA84" s="83" t="s">
+      <c r="AA84" s="82" t="s">
         <v>364</v>
       </c>
       <c r="AB84" s="36"/>
@@ -49608,7 +49637,7 @@
       <c r="E85" s="36"/>
       <c r="F85" s="36"/>
       <c r="G85" s="37"/>
-      <c r="H85" s="83" t="s">
+      <c r="H85" s="82" t="s">
         <v>362</v>
       </c>
       <c r="I85" s="40"/>
@@ -49617,7 +49646,7 @@
       <c r="L85" s="35"/>
       <c r="M85" s="36"/>
       <c r="N85" s="37"/>
-      <c r="O85" s="83" t="s">
+      <c r="O85" s="82" t="s">
         <v>366</v>
       </c>
       <c r="P85" s="36"/>
@@ -49633,7 +49662,7 @@
       <c r="X85" s="36"/>
       <c r="Y85" s="36"/>
       <c r="Z85" s="37"/>
-      <c r="AA85" s="83" t="s">
+      <c r="AA85" s="82" t="s">
         <v>365</v>
       </c>
       <c r="AB85" s="36"/>
@@ -49673,7 +49702,7 @@
       </c>
       <c r="M86" s="36"/>
       <c r="N86" s="37"/>
-      <c r="O86" s="83" t="s">
+      <c r="O86" s="82" t="s">
         <v>366</v>
       </c>
       <c r="P86" s="36"/>
@@ -49689,7 +49718,7 @@
       <c r="X86" s="36"/>
       <c r="Y86" s="36"/>
       <c r="Z86" s="37"/>
-      <c r="AA86" s="83" t="s">
+      <c r="AA86" s="82" t="s">
         <v>367</v>
       </c>
       <c r="AB86" s="36"/>
@@ -49729,7 +49758,7 @@
       </c>
       <c r="M87" s="54"/>
       <c r="N87" s="37"/>
-      <c r="O87" s="83" t="s">
+      <c r="O87" s="82" t="s">
         <v>366</v>
       </c>
       <c r="P87" s="36"/>
@@ -49745,7 +49774,7 @@
       <c r="X87" s="36"/>
       <c r="Y87" s="36"/>
       <c r="Z87" s="37"/>
-      <c r="AA87" s="83" t="s">
+      <c r="AA87" s="82" t="s">
         <v>368</v>
       </c>
       <c r="AB87" s="36"/>
@@ -49785,7 +49814,7 @@
       </c>
       <c r="M88" s="36"/>
       <c r="N88" s="37"/>
-      <c r="O88" s="83" t="s">
+      <c r="O88" s="82" t="s">
         <v>366</v>
       </c>
       <c r="P88" s="36"/>
@@ -49801,7 +49830,7 @@
       <c r="X88" s="36"/>
       <c r="Y88" s="36"/>
       <c r="Z88" s="37"/>
-      <c r="AA88" s="83" t="s">
+      <c r="AA88" s="82" t="s">
         <v>369</v>
       </c>
       <c r="AB88" s="36"/>
@@ -50088,7 +50117,7 @@
       <c r="E94" s="36"/>
       <c r="F94" s="36"/>
       <c r="G94" s="37"/>
-      <c r="H94" s="83" t="s">
+      <c r="H94" s="82" t="s">
         <v>357</v>
       </c>
       <c r="I94" s="40"/>
@@ -50111,7 +50140,7 @@
       <c r="X94" s="36"/>
       <c r="Y94" s="36"/>
       <c r="Z94" s="37"/>
-      <c r="AA94" s="83" t="s">
+      <c r="AA94" s="82" t="s">
         <v>377</v>
       </c>
       <c r="AB94" s="36"/>
@@ -50140,7 +50169,7 @@
       <c r="E95" s="36"/>
       <c r="F95" s="36"/>
       <c r="G95" s="37"/>
-      <c r="H95" s="84" t="s">
+      <c r="H95" s="83" t="s">
         <v>370</v>
       </c>
       <c r="I95" s="40"/>
@@ -50163,7 +50192,7 @@
       <c r="X95" s="36"/>
       <c r="Y95" s="36"/>
       <c r="Z95" s="37"/>
-      <c r="AA95" s="83" t="s">
+      <c r="AA95" s="82" t="s">
         <v>378</v>
       </c>
       <c r="AB95" s="36"/>
@@ -50192,7 +50221,7 @@
       <c r="E96" s="36"/>
       <c r="F96" s="36"/>
       <c r="G96" s="37"/>
-      <c r="H96" s="83" t="s">
+      <c r="H96" s="82" t="s">
         <v>371</v>
       </c>
       <c r="I96" s="40"/>
@@ -50215,7 +50244,7 @@
       <c r="X96" s="36"/>
       <c r="Y96" s="36"/>
       <c r="Z96" s="37"/>
-      <c r="AA96" s="83" t="s">
+      <c r="AA96" s="82" t="s">
         <v>379</v>
       </c>
       <c r="AB96" s="36"/>
@@ -50244,7 +50273,7 @@
       <c r="E97" s="36"/>
       <c r="F97" s="36"/>
       <c r="G97" s="37"/>
-      <c r="H97" s="83" t="s">
+      <c r="H97" s="82" t="s">
         <v>372</v>
       </c>
       <c r="I97" s="40"/>
@@ -50267,7 +50296,7 @@
       <c r="X97" s="36"/>
       <c r="Y97" s="36"/>
       <c r="Z97" s="37"/>
-      <c r="AA97" s="83" t="s">
+      <c r="AA97" s="82" t="s">
         <v>380</v>
       </c>
       <c r="AB97" s="36"/>
@@ -50296,7 +50325,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="36"/>
       <c r="G98" s="37"/>
-      <c r="H98" s="83" t="s">
+      <c r="H98" s="82" t="s">
         <v>373</v>
       </c>
       <c r="I98" s="40"/>
@@ -50319,7 +50348,7 @@
       <c r="X98" s="36"/>
       <c r="Y98" s="36"/>
       <c r="Z98" s="37"/>
-      <c r="AA98" s="83" t="s">
+      <c r="AA98" s="82" t="s">
         <v>381</v>
       </c>
       <c r="AB98" s="36"/>
@@ -50348,7 +50377,7 @@
       <c r="E99" s="36"/>
       <c r="F99" s="36"/>
       <c r="G99" s="37"/>
-      <c r="H99" s="83" t="s">
+      <c r="H99" s="82" t="s">
         <v>374</v>
       </c>
       <c r="I99" s="40"/>
@@ -50371,7 +50400,7 @@
       <c r="X99" s="36"/>
       <c r="Y99" s="36"/>
       <c r="Z99" s="37"/>
-      <c r="AA99" s="83" t="s">
+      <c r="AA99" s="82" t="s">
         <v>382</v>
       </c>
       <c r="AB99" s="36"/>
@@ -50400,7 +50429,7 @@
       <c r="E100" s="36"/>
       <c r="F100" s="36"/>
       <c r="G100" s="37"/>
-      <c r="H100" s="83" t="s">
+      <c r="H100" s="82" t="s">
         <v>375</v>
       </c>
       <c r="I100" s="40"/>
@@ -50423,7 +50452,7 @@
       <c r="X100" s="36"/>
       <c r="Y100" s="36"/>
       <c r="Z100" s="37"/>
-      <c r="AA100" s="83" t="s">
+      <c r="AA100" s="82" t="s">
         <v>383</v>
       </c>
       <c r="AB100" s="36"/>
@@ -50452,7 +50481,7 @@
       <c r="E101" s="36"/>
       <c r="F101" s="36"/>
       <c r="G101" s="37"/>
-      <c r="H101" s="83" t="s">
+      <c r="H101" s="82" t="s">
         <v>376</v>
       </c>
       <c r="I101" s="40"/>
@@ -50475,7 +50504,7 @@
       <c r="X101" s="36"/>
       <c r="Y101" s="36"/>
       <c r="Z101" s="37"/>
-      <c r="AA101" s="83" t="s">
+      <c r="AA101" s="82" t="s">
         <v>384</v>
       </c>
       <c r="AB101" s="36"/>
@@ -50954,158 +50983,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="99" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="104" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="201" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="137" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="201"/>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="201"/>
-      <c r="S1" s="201"/>
-      <c r="T1" s="201"/>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201" t="s">
+      <c r="O1" s="137"/>
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="137"/>
+      <c r="S1" s="137"/>
+      <c r="T1" s="137"/>
+      <c r="U1" s="137"/>
+      <c r="V1" s="137"/>
+      <c r="W1" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201" t="s">
+      <c r="X1" s="137"/>
+      <c r="Y1" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="201"/>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="201"/>
-      <c r="AD1" s="201"/>
-      <c r="AE1" s="201"/>
-      <c r="AF1" s="126" t="s">
+      <c r="Z1" s="137"/>
+      <c r="AA1" s="137"/>
+      <c r="AB1" s="137"/>
+      <c r="AC1" s="137"/>
+      <c r="AD1" s="137"/>
+      <c r="AE1" s="137"/>
+      <c r="AF1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="119" t="s">
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="118" t="s">
         <v>43</v>
       </c>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="120"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="119"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="93"/>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="200"/>
-      <c r="F2" s="200"/>
-      <c r="G2" s="200"/>
-      <c r="H2" s="200"/>
-      <c r="I2" s="200"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="108" t="s">
+      <c r="A2" s="98"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="136"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="121" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="120" t="s">
         <v>213</v>
       </c>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121" t="s">
+      <c r="O2" s="120"/>
+      <c r="P2" s="120"/>
+      <c r="Q2" s="120"/>
+      <c r="R2" s="120"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="120"/>
+      <c r="U2" s="120"/>
+      <c r="V2" s="120"/>
+      <c r="W2" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121" t="s">
+      <c r="X2" s="120"/>
+      <c r="Y2" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="121"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="205" t="s">
+      <c r="Z2" s="120"/>
+      <c r="AA2" s="120"/>
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="120"/>
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="205"/>
-      <c r="AH2" s="121" t="s">
+      <c r="AG2" s="141"/>
+      <c r="AH2" s="120" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="121"/>
-      <c r="AJ2" s="121"/>
-      <c r="AK2" s="121"/>
-      <c r="AL2" s="121"/>
-      <c r="AM2" s="121"/>
-      <c r="AN2" s="206"/>
+      <c r="AI2" s="120"/>
+      <c r="AJ2" s="120"/>
+      <c r="AK2" s="120"/>
+      <c r="AL2" s="120"/>
+      <c r="AM2" s="120"/>
+      <c r="AN2" s="142"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="100" t="s">
+      <c r="A3" s="101"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="102"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="102"/>
+      <c r="G3" s="102"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="102"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="101"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="202"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="203"/>
-      <c r="Q3" s="203"/>
-      <c r="R3" s="203"/>
-      <c r="S3" s="203"/>
-      <c r="T3" s="203"/>
-      <c r="U3" s="203"/>
-      <c r="V3" s="203"/>
-      <c r="W3" s="203"/>
-      <c r="X3" s="203"/>
-      <c r="Y3" s="203"/>
-      <c r="Z3" s="203"/>
-      <c r="AA3" s="203"/>
-      <c r="AB3" s="203"/>
-      <c r="AC3" s="203"/>
-      <c r="AD3" s="203"/>
-      <c r="AE3" s="203"/>
-      <c r="AF3" s="203"/>
-      <c r="AG3" s="203"/>
-      <c r="AH3" s="203"/>
-      <c r="AI3" s="203"/>
-      <c r="AJ3" s="203"/>
-      <c r="AK3" s="203"/>
-      <c r="AL3" s="203"/>
-      <c r="AM3" s="203"/>
-      <c r="AN3" s="204"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="138"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="139"/>
+      <c r="AD3" s="139"/>
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="139"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="139"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="139"/>
+      <c r="AL3" s="139"/>
+      <c r="AM3" s="139"/>
+      <c r="AN3" s="140"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B4" s="30"/>
@@ -51284,26 +51313,26 @@
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="180" t="s">
+      <c r="D9" s="143" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="180"/>
-      <c r="F9" s="180"/>
-      <c r="G9" s="180"/>
-      <c r="H9" s="180"/>
-      <c r="I9" s="180"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="143"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
-      <c r="O9" s="196" t="s">
+      <c r="O9" s="159" t="s">
         <v>28</v>
       </c>
-      <c r="P9" s="196"/>
-      <c r="Q9" s="196"/>
-      <c r="R9" s="196"/>
-      <c r="S9" s="196"/>
+      <c r="P9" s="159"/>
+      <c r="Q9" s="159"/>
+      <c r="R9" s="159"/>
+      <c r="S9" s="159"/>
       <c r="T9" s="10"/>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
@@ -51330,12 +51359,12 @@
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="181" t="s">
+      <c r="D10" s="144" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="181"/>
-      <c r="F10" s="181"/>
-      <c r="G10" s="181"/>
+      <c r="E10" s="144"/>
+      <c r="F10" s="144"/>
+      <c r="G10" s="144"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -51343,14 +51372,14 @@
       <c r="L10" s="5"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
-      <c r="O10" s="138" t="s">
+      <c r="O10" s="188" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="138"/>
-      <c r="Q10" s="138" t="s">
+      <c r="P10" s="188"/>
+      <c r="Q10" s="188" t="s">
         <v>58</v>
       </c>
-      <c r="R10" s="138"/>
+      <c r="R10" s="188"/>
       <c r="T10" s="10"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
@@ -51377,26 +51406,26 @@
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="183"/>
-      <c r="F11" s="183"/>
-      <c r="G11" s="183"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="183"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="184"/>
-      <c r="L11" s="185" t="s">
+      <c r="D11" s="145"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="147"/>
+      <c r="L11" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="M11" s="186"/>
+      <c r="M11" s="149"/>
       <c r="N11" s="9"/>
-      <c r="O11" s="187" t="s">
+      <c r="O11" s="150" t="s">
         <v>47</v>
       </c>
-      <c r="P11" s="188"/>
-      <c r="Q11" s="188"/>
-      <c r="R11" s="188"/>
-      <c r="S11" s="189"/>
+      <c r="P11" s="151"/>
+      <c r="Q11" s="151"/>
+      <c r="R11" s="151"/>
+      <c r="S11" s="152"/>
       <c r="T11" s="10"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
@@ -51434,11 +51463,11 @@
       <c r="L12" s="4"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
-      <c r="O12" s="190"/>
-      <c r="P12" s="191"/>
-      <c r="Q12" s="191"/>
-      <c r="R12" s="191"/>
-      <c r="S12" s="192"/>
+      <c r="O12" s="153"/>
+      <c r="P12" s="154"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="154"/>
+      <c r="S12" s="155"/>
       <c r="T12" s="12"/>
       <c r="U12" s="9"/>
       <c r="V12" s="9"/>
@@ -51464,27 +51493,27 @@
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
-      <c r="C13" s="197" t="s">
+      <c r="C13" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="198"/>
-      <c r="E13" s="198"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
       <c r="F13" s="4"/>
-      <c r="G13" s="151" t="s">
+      <c r="G13" s="163" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="152"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="114"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="114"/>
-      <c r="M13" s="115"/>
+      <c r="H13" s="164"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="93"/>
+      <c r="K13" s="93"/>
+      <c r="L13" s="93"/>
+      <c r="M13" s="94"/>
       <c r="N13" s="9"/>
-      <c r="O13" s="190"/>
-      <c r="P13" s="191"/>
-      <c r="Q13" s="191"/>
-      <c r="R13" s="191"/>
-      <c r="S13" s="192"/>
+      <c r="O13" s="153"/>
+      <c r="P13" s="154"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="154"/>
+      <c r="S13" s="155"/>
       <c r="T13" s="12"/>
       <c r="U13" s="9"/>
       <c r="V13" s="9"/>
@@ -51510,14 +51539,14 @@
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
-      <c r="C14" s="199" t="s">
+      <c r="C14" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="139" t="s">
+      <c r="D14" s="189" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="139"/>
-      <c r="F14" s="139"/>
+      <c r="E14" s="189"/>
+      <c r="F14" s="189"/>
       <c r="G14" s="42"/>
       <c r="H14" s="42"/>
       <c r="I14" s="4"/>
@@ -51526,11 +51555,11 @@
       <c r="L14" s="4"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
-      <c r="O14" s="190"/>
-      <c r="P14" s="191"/>
-      <c r="Q14" s="191"/>
-      <c r="R14" s="191"/>
-      <c r="S14" s="192"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="154"/>
+      <c r="Q14" s="154"/>
+      <c r="R14" s="154"/>
+      <c r="S14" s="155"/>
       <c r="T14" s="12"/>
       <c r="U14" s="9"/>
       <c r="V14" s="9"/>
@@ -51556,25 +51585,25 @@
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
-      <c r="C15" s="199"/>
-      <c r="D15" s="139"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="151" t="s">
+      <c r="C15" s="162"/>
+      <c r="D15" s="189"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="189"/>
+      <c r="G15" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="152"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="114"/>
-      <c r="K15" s="114"/>
-      <c r="L15" s="114"/>
-      <c r="M15" s="115"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="93"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="94"/>
       <c r="N15" s="9"/>
-      <c r="O15" s="190"/>
-      <c r="P15" s="191"/>
-      <c r="Q15" s="191"/>
-      <c r="R15" s="191"/>
-      <c r="S15" s="192"/>
+      <c r="O15" s="153"/>
+      <c r="P15" s="154"/>
+      <c r="Q15" s="154"/>
+      <c r="R15" s="154"/>
+      <c r="S15" s="155"/>
       <c r="T15" s="12"/>
       <c r="U15" s="9"/>
       <c r="V15" s="9"/>
@@ -51600,14 +51629,14 @@
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
-      <c r="C16" s="199" t="s">
+      <c r="C16" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="139" t="s">
+      <c r="D16" s="189" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
+      <c r="E16" s="189"/>
+      <c r="F16" s="189"/>
       <c r="G16" s="42"/>
       <c r="H16" s="42"/>
       <c r="I16" s="4"/>
@@ -51616,11 +51645,11 @@
       <c r="L16" s="4"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="190"/>
-      <c r="P16" s="191"/>
-      <c r="Q16" s="191"/>
-      <c r="R16" s="191"/>
-      <c r="S16" s="192"/>
+      <c r="O16" s="153"/>
+      <c r="P16" s="154"/>
+      <c r="Q16" s="154"/>
+      <c r="R16" s="154"/>
+      <c r="S16" s="155"/>
       <c r="T16" s="13"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
@@ -51646,25 +51675,25 @@
     <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="199"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="175" t="s">
+      <c r="C17" s="162"/>
+      <c r="D17" s="189"/>
+      <c r="E17" s="189"/>
+      <c r="F17" s="189"/>
+      <c r="G17" s="182" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="152"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="114"/>
-      <c r="K17" s="114"/>
-      <c r="L17" s="114"/>
-      <c r="M17" s="115"/>
+      <c r="H17" s="164"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="93"/>
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="94"/>
       <c r="N17" s="5"/>
-      <c r="O17" s="190"/>
-      <c r="P17" s="191"/>
-      <c r="Q17" s="191"/>
-      <c r="R17" s="191"/>
-      <c r="S17" s="192"/>
+      <c r="O17" s="153"/>
+      <c r="P17" s="154"/>
+      <c r="Q17" s="154"/>
+      <c r="R17" s="154"/>
+      <c r="S17" s="155"/>
       <c r="T17" s="13"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
@@ -51693,11 +51722,11 @@
       <c r="C18" s="14"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="O18" s="190"/>
-      <c r="P18" s="191"/>
-      <c r="Q18" s="191"/>
-      <c r="R18" s="191"/>
-      <c r="S18" s="192"/>
+      <c r="O18" s="153"/>
+      <c r="P18" s="154"/>
+      <c r="Q18" s="154"/>
+      <c r="R18" s="154"/>
+      <c r="S18" s="155"/>
       <c r="T18" s="13"/>
       <c r="U18" s="5"/>
       <c r="V18" s="4" t="s">
@@ -51726,23 +51755,23 @@
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="14"/>
-      <c r="D19" s="176" t="s">
+      <c r="D19" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="177"/>
-      <c r="F19" s="177"/>
-      <c r="G19" s="177"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="177"/>
-      <c r="J19" s="177"/>
-      <c r="K19" s="177"/>
-      <c r="L19" s="177"/>
-      <c r="M19" s="178"/>
-      <c r="O19" s="193"/>
-      <c r="P19" s="194"/>
-      <c r="Q19" s="194"/>
-      <c r="R19" s="194"/>
-      <c r="S19" s="195"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="184"/>
+      <c r="J19" s="184"/>
+      <c r="K19" s="184"/>
+      <c r="L19" s="184"/>
+      <c r="M19" s="185"/>
+      <c r="O19" s="156"/>
+      <c r="P19" s="157"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="157"/>
+      <c r="S19" s="158"/>
       <c r="T19" s="13"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
@@ -51801,18 +51830,18 @@
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="14"/>
-      <c r="D21" s="158" t="s">
+      <c r="D21" s="165" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="159"/>
-      <c r="F21" s="159"/>
-      <c r="G21" s="160"/>
-      <c r="H21" s="161" t="s">
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="168" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="162"/>
+      <c r="I21" s="168"/>
+      <c r="J21" s="168"/>
+      <c r="K21" s="169"/>
       <c r="T21" s="10"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
@@ -51848,15 +51877,15 @@
       <c r="H22" s="16"/>
       <c r="I22" s="16"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="179"/>
-      <c r="M22" s="179"/>
-      <c r="N22" s="179"/>
-      <c r="O22" s="179"/>
-      <c r="P22" s="179"/>
-      <c r="Q22" s="179"/>
-      <c r="R22" s="179"/>
-      <c r="S22" s="155"/>
+      <c r="K22" s="186"/>
+      <c r="L22" s="186"/>
+      <c r="M22" s="186"/>
+      <c r="N22" s="186"/>
+      <c r="O22" s="186"/>
+      <c r="P22" s="186"/>
+      <c r="Q22" s="186"/>
+      <c r="R22" s="186"/>
+      <c r="S22" s="203"/>
       <c r="T22" s="10"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
@@ -51904,7 +51933,7 @@
       <c r="P23" s="18"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
-      <c r="S23" s="156"/>
+      <c r="S23" s="204"/>
       <c r="T23" s="10"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
@@ -51931,22 +51960,22 @@
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="14"/>
-      <c r="D24" s="163"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="164"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="164"/>
-      <c r="K24" s="164"/>
-      <c r="L24" s="164"/>
-      <c r="M24" s="165"/>
-      <c r="N24" s="142"/>
-      <c r="O24" s="143"/>
-      <c r="P24" s="143"/>
-      <c r="Q24" s="143"/>
-      <c r="R24" s="144"/>
-      <c r="S24" s="156"/>
+      <c r="D24" s="170"/>
+      <c r="E24" s="171"/>
+      <c r="F24" s="171"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="179"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="171"/>
+      <c r="L24" s="171"/>
+      <c r="M24" s="172"/>
+      <c r="N24" s="192"/>
+      <c r="O24" s="193"/>
+      <c r="P24" s="193"/>
+      <c r="Q24" s="193"/>
+      <c r="R24" s="194"/>
+      <c r="S24" s="204"/>
       <c r="T24" s="12"/>
       <c r="U24" s="9"/>
       <c r="V24" s="9"/>
@@ -51973,22 +52002,22 @@
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="14"/>
-      <c r="D25" s="166"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="167"/>
-      <c r="G25" s="167"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="167"/>
-      <c r="K25" s="167"/>
-      <c r="L25" s="167"/>
-      <c r="M25" s="168"/>
-      <c r="N25" s="145"/>
-      <c r="O25" s="146"/>
-      <c r="P25" s="146"/>
-      <c r="Q25" s="146"/>
-      <c r="R25" s="147"/>
-      <c r="S25" s="156"/>
+      <c r="D25" s="173"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="174"/>
+      <c r="K25" s="174"/>
+      <c r="L25" s="174"/>
+      <c r="M25" s="175"/>
+      <c r="N25" s="195"/>
+      <c r="O25" s="196"/>
+      <c r="P25" s="196"/>
+      <c r="Q25" s="196"/>
+      <c r="R25" s="197"/>
+      <c r="S25" s="204"/>
       <c r="T25" s="12"/>
       <c r="U25" s="9"/>
       <c r="V25" s="9"/>
@@ -52015,22 +52044,22 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="14"/>
-      <c r="D26" s="166"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="167"/>
-      <c r="K26" s="167"/>
-      <c r="L26" s="167"/>
-      <c r="M26" s="168"/>
-      <c r="N26" s="145"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="146"/>
-      <c r="Q26" s="146"/>
-      <c r="R26" s="147"/>
-      <c r="S26" s="156"/>
+      <c r="D26" s="173"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="174"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="180"/>
+      <c r="J26" s="174"/>
+      <c r="K26" s="174"/>
+      <c r="L26" s="174"/>
+      <c r="M26" s="175"/>
+      <c r="N26" s="195"/>
+      <c r="O26" s="196"/>
+      <c r="P26" s="196"/>
+      <c r="Q26" s="196"/>
+      <c r="R26" s="197"/>
+      <c r="S26" s="204"/>
       <c r="T26" s="12"/>
       <c r="U26" s="9"/>
       <c r="V26" s="9"/>
@@ -52057,22 +52086,22 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="14"/>
-      <c r="D27" s="169"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="174"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="171"/>
-      <c r="N27" s="148"/>
-      <c r="O27" s="149"/>
-      <c r="P27" s="149"/>
-      <c r="Q27" s="149"/>
-      <c r="R27" s="150"/>
-      <c r="S27" s="156"/>
+      <c r="D27" s="176"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="177"/>
+      <c r="G27" s="177"/>
+      <c r="H27" s="178"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="177"/>
+      <c r="K27" s="177"/>
+      <c r="L27" s="177"/>
+      <c r="M27" s="178"/>
+      <c r="N27" s="198"/>
+      <c r="O27" s="199"/>
+      <c r="P27" s="199"/>
+      <c r="Q27" s="199"/>
+      <c r="R27" s="200"/>
+      <c r="S27" s="204"/>
       <c r="T27" s="13"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
@@ -52120,7 +52149,7 @@
       <c r="P28" s="18"/>
       <c r="Q28" s="18"/>
       <c r="R28" s="18"/>
-      <c r="S28" s="156"/>
+      <c r="S28" s="204"/>
       <c r="T28" s="13"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
@@ -52147,22 +52176,22 @@
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="14"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="140"/>
-      <c r="F29" s="140"/>
-      <c r="G29" s="140"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="140"/>
-      <c r="J29" s="140"/>
-      <c r="K29" s="140"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="140"/>
-      <c r="N29" s="157"/>
-      <c r="O29" s="157"/>
-      <c r="P29" s="157"/>
-      <c r="Q29" s="157"/>
-      <c r="R29" s="157"/>
-      <c r="S29" s="156"/>
+      <c r="D29" s="191"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="190"/>
+      <c r="I29" s="190"/>
+      <c r="J29" s="190"/>
+      <c r="K29" s="190"/>
+      <c r="L29" s="190"/>
+      <c r="M29" s="190"/>
+      <c r="N29" s="205"/>
+      <c r="O29" s="205"/>
+      <c r="P29" s="205"/>
+      <c r="Q29" s="205"/>
+      <c r="R29" s="205"/>
+      <c r="S29" s="204"/>
       <c r="T29" s="10"/>
       <c r="U29" s="4"/>
       <c r="V29" s="5"/>
@@ -52189,22 +52218,22 @@
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="14"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="140"/>
-      <c r="F30" s="140"/>
-      <c r="G30" s="140"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="140"/>
-      <c r="J30" s="140"/>
-      <c r="K30" s="140"/>
-      <c r="L30" s="140"/>
-      <c r="M30" s="140"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="157"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="157"/>
-      <c r="S30" s="156"/>
+      <c r="D30" s="191"/>
+      <c r="E30" s="190"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="190"/>
+      <c r="H30" s="190"/>
+      <c r="I30" s="190"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="190"/>
+      <c r="L30" s="190"/>
+      <c r="M30" s="190"/>
+      <c r="N30" s="205"/>
+      <c r="O30" s="205"/>
+      <c r="P30" s="205"/>
+      <c r="Q30" s="205"/>
+      <c r="R30" s="205"/>
+      <c r="S30" s="204"/>
       <c r="T30" s="10"/>
       <c r="U30" s="4"/>
       <c r="V30" s="5"/>
@@ -52231,22 +52260,22 @@
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="14"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="140"/>
-      <c r="F31" s="140"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="140"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="140"/>
-      <c r="L31" s="140"/>
-      <c r="M31" s="140"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="157"/>
-      <c r="Q31" s="157"/>
-      <c r="R31" s="157"/>
-      <c r="S31" s="156"/>
+      <c r="D31" s="191"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="190"/>
+      <c r="K31" s="190"/>
+      <c r="L31" s="190"/>
+      <c r="M31" s="190"/>
+      <c r="N31" s="205"/>
+      <c r="O31" s="205"/>
+      <c r="P31" s="205"/>
+      <c r="Q31" s="205"/>
+      <c r="R31" s="205"/>
+      <c r="S31" s="204"/>
       <c r="T31" s="10"/>
       <c r="U31" s="4"/>
       <c r="V31" s="5"/>
@@ -52273,22 +52302,22 @@
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="14"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="140"/>
-      <c r="F32" s="140"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="140"/>
-      <c r="I32" s="140"/>
-      <c r="J32" s="140"/>
-      <c r="K32" s="140"/>
-      <c r="L32" s="140"/>
-      <c r="M32" s="140"/>
-      <c r="N32" s="157"/>
-      <c r="O32" s="157"/>
-      <c r="P32" s="157"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="157"/>
-      <c r="S32" s="156"/>
+      <c r="D32" s="191"/>
+      <c r="E32" s="190"/>
+      <c r="F32" s="190"/>
+      <c r="G32" s="190"/>
+      <c r="H32" s="190"/>
+      <c r="I32" s="190"/>
+      <c r="J32" s="190"/>
+      <c r="K32" s="190"/>
+      <c r="L32" s="190"/>
+      <c r="M32" s="190"/>
+      <c r="N32" s="205"/>
+      <c r="O32" s="205"/>
+      <c r="P32" s="205"/>
+      <c r="Q32" s="205"/>
+      <c r="R32" s="205"/>
+      <c r="S32" s="204"/>
       <c r="T32" s="10"/>
       <c r="U32" s="4"/>
       <c r="V32" s="5"/>
@@ -52315,22 +52344,22 @@
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="14"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="140"/>
-      <c r="F33" s="140"/>
-      <c r="G33" s="140"/>
-      <c r="H33" s="140"/>
-      <c r="I33" s="140"/>
-      <c r="J33" s="140"/>
-      <c r="K33" s="140"/>
-      <c r="L33" s="140"/>
-      <c r="M33" s="140"/>
-      <c r="N33" s="157"/>
-      <c r="O33" s="157"/>
-      <c r="P33" s="157"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="157"/>
-      <c r="S33" s="156"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="190"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="190"/>
+      <c r="J33" s="190"/>
+      <c r="K33" s="190"/>
+      <c r="L33" s="190"/>
+      <c r="M33" s="190"/>
+      <c r="N33" s="205"/>
+      <c r="O33" s="205"/>
+      <c r="P33" s="205"/>
+      <c r="Q33" s="205"/>
+      <c r="R33" s="205"/>
+      <c r="S33" s="204"/>
       <c r="T33" s="10"/>
       <c r="U33" s="4"/>
       <c r="V33" s="5"/>
@@ -52358,21 +52387,21 @@
       <c r="B34" s="3"/>
       <c r="C34" s="14"/>
       <c r="D34" s="23"/>
-      <c r="E34" s="153"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
-      <c r="K34" s="153"/>
-      <c r="L34" s="153"/>
-      <c r="M34" s="153"/>
-      <c r="N34" s="153"/>
-      <c r="O34" s="153"/>
-      <c r="P34" s="153"/>
-      <c r="Q34" s="153"/>
-      <c r="R34" s="153"/>
-      <c r="S34" s="154"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="201"/>
+      <c r="K34" s="201"/>
+      <c r="L34" s="201"/>
+      <c r="M34" s="201"/>
+      <c r="N34" s="201"/>
+      <c r="O34" s="201"/>
+      <c r="P34" s="201"/>
+      <c r="Q34" s="201"/>
+      <c r="R34" s="201"/>
+      <c r="S34" s="202"/>
       <c r="T34" s="10"/>
       <c r="U34" s="4"/>
       <c r="V34" s="9"/>
@@ -52813,13 +52842,13 @@
       <c r="C45" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="137" t="s">
+      <c r="D45" s="187" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="137"/>
+      <c r="E45" s="187"/>
+      <c r="F45" s="187"/>
+      <c r="G45" s="187"/>
+      <c r="H45" s="187"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c r="L45" s="9"/>
@@ -53065,13 +53094,13 @@
       <c r="C52" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="137" t="s">
+      <c r="D52" s="187" t="s">
         <v>28</v>
       </c>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="G52" s="137"/>
-      <c r="H52" s="137"/>
+      <c r="E52" s="187"/>
+      <c r="F52" s="187"/>
+      <c r="G52" s="187"/>
+      <c r="H52" s="187"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -53209,13 +53238,13 @@
       <c r="C56" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="137" t="s">
+      <c r="D56" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="E56" s="137"/>
-      <c r="F56" s="137"/>
-      <c r="G56" s="137"/>
-      <c r="H56" s="137"/>
+      <c r="E56" s="187"/>
+      <c r="F56" s="187"/>
+      <c r="G56" s="187"/>
+      <c r="H56" s="187"/>
       <c r="J56" s="4"/>
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
@@ -53315,13 +53344,13 @@
       <c r="C60" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D60" s="137" t="s">
+      <c r="D60" s="187" t="s">
         <v>27</v>
       </c>
-      <c r="E60" s="137"/>
-      <c r="F60" s="137"/>
-      <c r="G60" s="137"/>
-      <c r="H60" s="137"/>
+      <c r="E60" s="187"/>
+      <c r="F60" s="187"/>
+      <c r="G60" s="187"/>
+      <c r="H60" s="187"/>
       <c r="K60" s="9"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
@@ -53422,13 +53451,13 @@
       <c r="C63" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D63" s="137" t="s">
+      <c r="D63" s="187" t="s">
         <v>72</v>
       </c>
-      <c r="E63" s="137"/>
-      <c r="F63" s="137"/>
-      <c r="G63" s="137"/>
-      <c r="H63" s="137"/>
+      <c r="E63" s="187"/>
+      <c r="F63" s="187"/>
+      <c r="G63" s="187"/>
+      <c r="H63" s="187"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
@@ -54125,12 +54154,12 @@
       <c r="T79" s="37"/>
       <c r="U79" s="35"/>
       <c r="V79" s="37"/>
-      <c r="W79" s="134" t="s">
+      <c r="W79" s="133" t="s">
         <v>258</v>
       </c>
-      <c r="X79" s="135"/>
-      <c r="Y79" s="135"/>
-      <c r="Z79" s="136"/>
+      <c r="X79" s="134"/>
+      <c r="Y79" s="134"/>
+      <c r="Z79" s="135"/>
       <c r="AA79" s="35" t="s">
         <v>354</v>
       </c>
@@ -54185,12 +54214,12 @@
         <v>10</v>
       </c>
       <c r="V80" s="37"/>
-      <c r="W80" s="134" t="s">
+      <c r="W80" s="133" t="s">
         <v>258</v>
       </c>
-      <c r="X80" s="135"/>
-      <c r="Y80" s="135"/>
-      <c r="Z80" s="136"/>
+      <c r="X80" s="134"/>
+      <c r="Y80" s="134"/>
+      <c r="Z80" s="135"/>
       <c r="AA80" s="35" t="s">
         <v>352</v>
       </c>
@@ -54239,12 +54268,12 @@
       <c r="T81" s="37"/>
       <c r="U81" s="35"/>
       <c r="V81" s="37"/>
-      <c r="W81" s="134" t="s">
+      <c r="W81" s="133" t="s">
         <v>258</v>
       </c>
-      <c r="X81" s="135"/>
-      <c r="Y81" s="135"/>
-      <c r="Z81" s="136"/>
+      <c r="X81" s="134"/>
+      <c r="Y81" s="134"/>
+      <c r="Z81" s="135"/>
       <c r="AA81" s="35"/>
       <c r="AB81" s="36"/>
       <c r="AC81" s="37"/>
@@ -54291,12 +54320,12 @@
       <c r="T82" s="37"/>
       <c r="U82" s="35"/>
       <c r="V82" s="37"/>
-      <c r="W82" s="134" t="s">
+      <c r="W82" s="133" t="s">
         <v>258</v>
       </c>
-      <c r="X82" s="135"/>
-      <c r="Y82" s="135"/>
-      <c r="Z82" s="136"/>
+      <c r="X82" s="134"/>
+      <c r="Y82" s="134"/>
+      <c r="Z82" s="135"/>
       <c r="AA82" s="35"/>
       <c r="AB82" s="36"/>
       <c r="AC82" s="37"/>
@@ -54345,12 +54374,12 @@
       <c r="T83" s="37"/>
       <c r="U83" s="35"/>
       <c r="V83" s="37"/>
-      <c r="W83" s="134" t="s">
+      <c r="W83" s="133" t="s">
         <v>258</v>
       </c>
-      <c r="X83" s="135"/>
-      <c r="Y83" s="135"/>
-      <c r="Z83" s="136"/>
+      <c r="X83" s="134"/>
+      <c r="Y83" s="134"/>
+      <c r="Z83" s="135"/>
       <c r="AA83" s="35" t="s">
         <v>278</v>
       </c>
@@ -54401,12 +54430,12 @@
       <c r="T84" s="37"/>
       <c r="U84" s="35"/>
       <c r="V84" s="37"/>
-      <c r="W84" s="134" t="s">
+      <c r="W84" s="133" t="s">
         <v>258</v>
       </c>
-      <c r="X84" s="135"/>
-      <c r="Y84" s="135"/>
-      <c r="Z84" s="136"/>
+      <c r="X84" s="134"/>
+      <c r="Y84" s="134"/>
+      <c r="Z84" s="135"/>
       <c r="AA84" s="35" t="s">
         <v>279</v>
       </c>
@@ -54457,12 +54486,12 @@
       <c r="T85" s="37"/>
       <c r="U85" s="35"/>
       <c r="V85" s="37"/>
-      <c r="W85" s="134" t="s">
+      <c r="W85" s="133" t="s">
         <v>258</v>
       </c>
-      <c r="X85" s="135"/>
-      <c r="Y85" s="135"/>
-      <c r="Z85" s="136"/>
+      <c r="X85" s="134"/>
+      <c r="Y85" s="134"/>
+      <c r="Z85" s="135"/>
       <c r="AA85" s="35" t="s">
         <v>280</v>
       </c>
@@ -54492,12 +54521,12 @@
       <c r="E86" s="36"/>
       <c r="F86" s="36"/>
       <c r="G86" s="37"/>
-      <c r="H86" s="85" t="s">
+      <c r="H86" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="I86" s="86"/>
-      <c r="J86" s="86"/>
-      <c r="K86" s="87"/>
+      <c r="I86" s="85"/>
+      <c r="J86" s="85"/>
+      <c r="K86" s="86"/>
       <c r="L86" s="35" t="s">
         <v>266</v>
       </c>
@@ -54542,12 +54571,12 @@
       <c r="E87" s="36"/>
       <c r="F87" s="36"/>
       <c r="G87" s="37"/>
-      <c r="H87" s="85" t="s">
+      <c r="H87" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="I87" s="86"/>
-      <c r="J87" s="86"/>
-      <c r="K87" s="87"/>
+      <c r="I87" s="85"/>
+      <c r="J87" s="85"/>
+      <c r="K87" s="86"/>
       <c r="L87" s="35" t="s">
         <v>115</v>
       </c>
@@ -54563,12 +54592,12 @@
       <c r="T87" s="37"/>
       <c r="U87" s="35"/>
       <c r="V87" s="37"/>
-      <c r="W87" s="113" t="s">
+      <c r="W87" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="X87" s="114"/>
-      <c r="Y87" s="114"/>
-      <c r="Z87" s="115"/>
+      <c r="X87" s="93"/>
+      <c r="Y87" s="93"/>
+      <c r="Z87" s="94"/>
       <c r="AA87" s="35" t="s">
         <v>277</v>
       </c>
@@ -54598,12 +54627,12 @@
       <c r="E88" s="36"/>
       <c r="F88" s="36"/>
       <c r="G88" s="37"/>
-      <c r="H88" s="85" t="s">
+      <c r="H88" s="84" t="s">
         <v>271</v>
       </c>
-      <c r="I88" s="86"/>
-      <c r="J88" s="86"/>
-      <c r="K88" s="87"/>
+      <c r="I88" s="85"/>
+      <c r="J88" s="85"/>
+      <c r="K88" s="86"/>
       <c r="L88" s="35" t="s">
         <v>115</v>
       </c>
@@ -54619,12 +54648,12 @@
       <c r="T88" s="37"/>
       <c r="U88" s="35"/>
       <c r="V88" s="37"/>
-      <c r="W88" s="113" t="s">
+      <c r="W88" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="X88" s="114"/>
-      <c r="Y88" s="114"/>
-      <c r="Z88" s="115"/>
+      <c r="X88" s="93"/>
+      <c r="Y88" s="93"/>
+      <c r="Z88" s="94"/>
       <c r="AA88" s="35" t="s">
         <v>281</v>
       </c>
@@ -54654,12 +54683,12 @@
       <c r="E89" s="36"/>
       <c r="F89" s="36"/>
       <c r="G89" s="37"/>
-      <c r="H89" s="85" t="s">
+      <c r="H89" s="84" t="s">
         <v>272</v>
       </c>
-      <c r="I89" s="86"/>
-      <c r="J89" s="86"/>
-      <c r="K89" s="87"/>
+      <c r="I89" s="85"/>
+      <c r="J89" s="85"/>
+      <c r="K89" s="86"/>
       <c r="L89" s="35" t="s">
         <v>273</v>
       </c>
@@ -54706,12 +54735,12 @@
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
       <c r="G90" s="37"/>
-      <c r="H90" s="85" t="s">
+      <c r="H90" s="84" t="s">
         <v>274</v>
       </c>
-      <c r="I90" s="86"/>
-      <c r="J90" s="86"/>
-      <c r="K90" s="87"/>
+      <c r="I90" s="85"/>
+      <c r="J90" s="85"/>
+      <c r="K90" s="86"/>
       <c r="L90" s="35" t="s">
         <v>115</v>
       </c>
@@ -54758,12 +54787,12 @@
       <c r="E91" s="36"/>
       <c r="F91" s="36"/>
       <c r="G91" s="37"/>
-      <c r="H91" s="85" t="s">
+      <c r="H91" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="I91" s="86"/>
-      <c r="J91" s="86"/>
-      <c r="K91" s="87"/>
+      <c r="I91" s="85"/>
+      <c r="J91" s="85"/>
+      <c r="K91" s="86"/>
       <c r="L91" s="35" t="s">
         <v>115</v>
       </c>
@@ -54810,12 +54839,12 @@
       <c r="E92" s="36"/>
       <c r="F92" s="36"/>
       <c r="G92" s="37"/>
-      <c r="H92" s="85" t="s">
+      <c r="H92" s="84" t="s">
         <v>275</v>
       </c>
-      <c r="I92" s="86"/>
-      <c r="J92" s="86"/>
-      <c r="K92" s="87"/>
+      <c r="I92" s="85"/>
+      <c r="J92" s="85"/>
+      <c r="K92" s="86"/>
       <c r="L92" s="35" t="s">
         <v>282</v>
       </c>
@@ -54881,12 +54910,12 @@
       <c r="T93" s="37"/>
       <c r="U93" s="35"/>
       <c r="V93" s="37"/>
-      <c r="W93" s="134" t="s">
+      <c r="W93" s="133" t="s">
         <v>258</v>
       </c>
-      <c r="X93" s="135"/>
-      <c r="Y93" s="135"/>
-      <c r="Z93" s="136"/>
+      <c r="X93" s="134"/>
+      <c r="Y93" s="134"/>
+      <c r="Z93" s="135"/>
       <c r="AA93" s="35" t="s">
         <v>358</v>
       </c>
@@ -54935,17 +54964,17 @@
       <c r="T94" s="37"/>
       <c r="U94" s="35"/>
       <c r="V94" s="37"/>
-      <c r="W94" s="134" t="s">
+      <c r="W94" s="133" t="s">
         <v>258</v>
       </c>
-      <c r="X94" s="135"/>
-      <c r="Y94" s="135"/>
-      <c r="Z94" s="136"/>
-      <c r="AA94" s="113" t="s">
+      <c r="X94" s="134"/>
+      <c r="Y94" s="134"/>
+      <c r="Z94" s="135"/>
+      <c r="AA94" s="92" t="s">
         <v>359</v>
       </c>
-      <c r="AB94" s="114"/>
-      <c r="AC94" s="115"/>
+      <c r="AB94" s="93"/>
+      <c r="AC94" s="94"/>
       <c r="AD94" s="35"/>
       <c r="AE94" s="36"/>
       <c r="AF94" s="36"/>
@@ -55632,12 +55661,47 @@
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AA94:AC94"/>
-    <mergeCell ref="W93:Z93"/>
-    <mergeCell ref="W94:Z94"/>
-    <mergeCell ref="W81:Z81"/>
-    <mergeCell ref="W82:Z82"/>
-    <mergeCell ref="W88:Z88"/>
+    <mergeCell ref="W80:Z80"/>
+    <mergeCell ref="W83:Z83"/>
+    <mergeCell ref="W84:Z84"/>
+    <mergeCell ref="W85:Z85"/>
+    <mergeCell ref="W87:Z87"/>
+    <mergeCell ref="D63:H63"/>
+    <mergeCell ref="D45:H45"/>
+    <mergeCell ref="D52:H52"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="D56:H56"/>
+    <mergeCell ref="D60:H60"/>
+    <mergeCell ref="D14:F15"/>
+    <mergeCell ref="D16:F17"/>
+    <mergeCell ref="I29:M33"/>
+    <mergeCell ref="D29:H33"/>
+    <mergeCell ref="N24:R27"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="E34:S34"/>
+    <mergeCell ref="S22:S33"/>
+    <mergeCell ref="N29:R33"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="D24:H27"/>
+    <mergeCell ref="I24:M27"/>
+    <mergeCell ref="I17:M17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="D19:M19"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="O11:S19"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I15:M15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="G15:H15"/>
     <mergeCell ref="W79:Z79"/>
     <mergeCell ref="A1:J3"/>
     <mergeCell ref="K1:M1"/>
@@ -55654,47 +55718,12 @@
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="O11:S19"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="I15:M15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="D21:G21"/>
-    <mergeCell ref="H21:K21"/>
-    <mergeCell ref="D24:H27"/>
-    <mergeCell ref="I24:M27"/>
-    <mergeCell ref="I17:M17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D19:M19"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="D63:H63"/>
-    <mergeCell ref="D45:H45"/>
-    <mergeCell ref="D52:H52"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="D56:H56"/>
-    <mergeCell ref="D60:H60"/>
-    <mergeCell ref="D14:F15"/>
-    <mergeCell ref="D16:F17"/>
-    <mergeCell ref="I29:M33"/>
-    <mergeCell ref="D29:H33"/>
-    <mergeCell ref="N24:R27"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="E34:S34"/>
-    <mergeCell ref="S22:S33"/>
-    <mergeCell ref="N29:R33"/>
-    <mergeCell ref="W80:Z80"/>
-    <mergeCell ref="W83:Z83"/>
-    <mergeCell ref="W84:Z84"/>
-    <mergeCell ref="W85:Z85"/>
-    <mergeCell ref="W87:Z87"/>
+    <mergeCell ref="AA94:AC94"/>
+    <mergeCell ref="W93:Z93"/>
+    <mergeCell ref="W94:Z94"/>
+    <mergeCell ref="W81:Z81"/>
+    <mergeCell ref="W82:Z82"/>
+    <mergeCell ref="W88:Z88"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -55726,158 +55755,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="209"/>
-      <c r="K1" s="215" t="s">
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99" t="s">
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99" t="s">
+      <c r="O1" s="104"/>
+      <c r="P1" s="104"/>
+      <c r="Q1" s="104"/>
+      <c r="R1" s="104"/>
+      <c r="S1" s="104"/>
+      <c r="T1" s="104"/>
+      <c r="U1" s="104"/>
+      <c r="V1" s="104"/>
+      <c r="W1" s="104" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99" t="s">
+      <c r="X1" s="104"/>
+      <c r="Y1" s="104" t="s">
         <v>78</v>
       </c>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="99"/>
-      <c r="AB1" s="99"/>
-      <c r="AC1" s="99"/>
-      <c r="AD1" s="99"/>
-      <c r="AE1" s="99"/>
-      <c r="AF1" s="126" t="s">
+      <c r="Z1" s="104"/>
+      <c r="AA1" s="104"/>
+      <c r="AB1" s="104"/>
+      <c r="AC1" s="104"/>
+      <c r="AD1" s="104"/>
+      <c r="AE1" s="104"/>
+      <c r="AF1" s="125" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="126"/>
-      <c r="AH1" s="119" t="s">
+      <c r="AG1" s="125"/>
+      <c r="AH1" s="118" t="s">
         <v>254</v>
       </c>
-      <c r="AI1" s="119"/>
-      <c r="AJ1" s="119"/>
-      <c r="AK1" s="119"/>
-      <c r="AL1" s="119"/>
-      <c r="AM1" s="119"/>
-      <c r="AN1" s="120"/>
+      <c r="AI1" s="118"/>
+      <c r="AJ1" s="118"/>
+      <c r="AK1" s="118"/>
+      <c r="AL1" s="118"/>
+      <c r="AM1" s="118"/>
+      <c r="AN1" s="119"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="210"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="219" t="s">
+      <c r="A2" s="209"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="210"/>
+      <c r="K2" s="218" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108" t="s">
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113" t="s">
         <v>213</v>
       </c>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-      <c r="S2" s="108"/>
-      <c r="T2" s="108"/>
-      <c r="U2" s="108"/>
-      <c r="V2" s="108"/>
-      <c r="W2" s="108" t="s">
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="108"/>
-      <c r="Y2" s="128" t="s">
+      <c r="X2" s="113"/>
+      <c r="Y2" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="Z2" s="108"/>
-      <c r="AA2" s="108"/>
-      <c r="AB2" s="108"/>
-      <c r="AC2" s="108"/>
-      <c r="AD2" s="108"/>
-      <c r="AE2" s="108"/>
-      <c r="AF2" s="122" t="s">
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="122"/>
-      <c r="AH2" s="130" t="s">
+      <c r="AG2" s="121"/>
+      <c r="AH2" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="AI2" s="130"/>
-      <c r="AJ2" s="130"/>
-      <c r="AK2" s="130"/>
-      <c r="AL2" s="130"/>
-      <c r="AM2" s="130"/>
-      <c r="AN2" s="131"/>
+      <c r="AI2" s="129"/>
+      <c r="AJ2" s="129"/>
+      <c r="AK2" s="129"/>
+      <c r="AL2" s="129"/>
+      <c r="AM2" s="129"/>
+      <c r="AN2" s="130"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="212"/>
-      <c r="B3" s="213"/>
-      <c r="C3" s="213"/>
-      <c r="D3" s="213"/>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
-      <c r="G3" s="213"/>
-      <c r="H3" s="213"/>
-      <c r="I3" s="213"/>
-      <c r="J3" s="214"/>
-      <c r="K3" s="101" t="s">
+      <c r="A3" s="211"/>
+      <c r="B3" s="212"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="212"/>
+      <c r="F3" s="212"/>
+      <c r="G3" s="212"/>
+      <c r="H3" s="212"/>
+      <c r="I3" s="212"/>
+      <c r="J3" s="213"/>
+      <c r="K3" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="101"/>
-      <c r="M3" s="102"/>
-      <c r="N3" s="216"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="217"/>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="217"/>
-      <c r="S3" s="217"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="217"/>
-      <c r="AB3" s="217"/>
-      <c r="AC3" s="217"/>
-      <c r="AD3" s="217"/>
-      <c r="AE3" s="217"/>
-      <c r="AF3" s="217"/>
-      <c r="AG3" s="217"/>
-      <c r="AH3" s="217"/>
-      <c r="AI3" s="217"/>
-      <c r="AJ3" s="217"/>
-      <c r="AK3" s="217"/>
-      <c r="AL3" s="217"/>
-      <c r="AM3" s="217"/>
-      <c r="AN3" s="218"/>
+      <c r="L3" s="106"/>
+      <c r="M3" s="107"/>
+      <c r="N3" s="215"/>
+      <c r="O3" s="216"/>
+      <c r="P3" s="216"/>
+      <c r="Q3" s="216"/>
+      <c r="R3" s="216"/>
+      <c r="S3" s="216"/>
+      <c r="T3" s="216"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="216"/>
+      <c r="W3" s="216"/>
+      <c r="X3" s="216"/>
+      <c r="Y3" s="216"/>
+      <c r="Z3" s="216"/>
+      <c r="AA3" s="216"/>
+      <c r="AB3" s="216"/>
+      <c r="AC3" s="216"/>
+      <c r="AD3" s="216"/>
+      <c r="AE3" s="216"/>
+      <c r="AF3" s="216"/>
+      <c r="AG3" s="216"/>
+      <c r="AH3" s="216"/>
+      <c r="AI3" s="216"/>
+      <c r="AJ3" s="216"/>
+      <c r="AK3" s="216"/>
+      <c r="AL3" s="216"/>
+      <c r="AM3" s="216"/>
+      <c r="AN3" s="217"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="30"/>
@@ -58208,7 +58237,7 @@
       <c r="E81" s="36"/>
       <c r="F81" s="36"/>
       <c r="G81" s="39"/>
-      <c r="H81" s="83" t="s">
+      <c r="H81" s="82" t="s">
         <v>309</v>
       </c>
       <c r="I81" s="40"/>
@@ -58235,7 +58264,7 @@
       <c r="X81" s="36"/>
       <c r="Y81" s="36"/>
       <c r="Z81" s="37"/>
-      <c r="AA81" s="83" t="s">
+      <c r="AA81" s="82" t="s">
         <v>324</v>
       </c>
       <c r="AB81" s="36"/>
@@ -58264,7 +58293,7 @@
       <c r="E82" s="36"/>
       <c r="F82" s="36"/>
       <c r="G82" s="39"/>
-      <c r="H82" s="83" t="s">
+      <c r="H82" s="82" t="s">
         <v>310</v>
       </c>
       <c r="I82" s="40"/>
@@ -58273,7 +58302,7 @@
       <c r="L82" s="35"/>
       <c r="M82" s="36"/>
       <c r="N82" s="37"/>
-      <c r="O82" s="83" t="s">
+      <c r="O82" s="82" t="s">
         <v>340</v>
       </c>
       <c r="P82" s="36"/>
@@ -58291,7 +58320,7 @@
       <c r="X82" s="36"/>
       <c r="Y82" s="36"/>
       <c r="Z82" s="37"/>
-      <c r="AA82" s="83" t="s">
+      <c r="AA82" s="82" t="s">
         <v>325</v>
       </c>
       <c r="AB82" s="36"/>
@@ -58320,7 +58349,7 @@
       <c r="E83" s="36"/>
       <c r="F83" s="36"/>
       <c r="G83" s="39"/>
-      <c r="H83" s="83" t="s">
+      <c r="H83" s="82" t="s">
         <v>311</v>
       </c>
       <c r="I83" s="40"/>
@@ -58329,7 +58358,7 @@
       <c r="L83" s="35"/>
       <c r="M83" s="36"/>
       <c r="N83" s="37"/>
-      <c r="O83" s="83" t="s">
+      <c r="O83" s="82" t="s">
         <v>340</v>
       </c>
       <c r="P83" s="36"/>
@@ -58347,7 +58376,7 @@
       <c r="X83" s="36"/>
       <c r="Y83" s="36"/>
       <c r="Z83" s="37"/>
-      <c r="AA83" s="83" t="s">
+      <c r="AA83" s="82" t="s">
         <v>326</v>
       </c>
       <c r="AB83" s="36"/>
@@ -58385,7 +58414,7 @@
       <c r="L84" s="35"/>
       <c r="M84" s="36"/>
       <c r="N84" s="37"/>
-      <c r="O84" s="83" t="s">
+      <c r="O84" s="82" t="s">
         <v>340</v>
       </c>
       <c r="P84" s="36"/>
@@ -58403,7 +58432,7 @@
       <c r="X84" s="36"/>
       <c r="Y84" s="36"/>
       <c r="Z84" s="37"/>
-      <c r="AA84" s="83" t="s">
+      <c r="AA84" s="82" t="s">
         <v>327</v>
       </c>
       <c r="AB84" s="36"/>
@@ -58432,7 +58461,7 @@
       <c r="E85" s="36"/>
       <c r="F85" s="36"/>
       <c r="G85" s="39"/>
-      <c r="H85" s="83" t="s">
+      <c r="H85" s="82" t="s">
         <v>313</v>
       </c>
       <c r="I85" s="40"/>
@@ -58441,7 +58470,7 @@
       <c r="L85" s="35"/>
       <c r="M85" s="36"/>
       <c r="N85" s="37"/>
-      <c r="O85" s="83" t="s">
+      <c r="O85" s="82" t="s">
         <v>340</v>
       </c>
       <c r="P85" s="36"/>
@@ -58459,7 +58488,7 @@
       <c r="X85" s="36"/>
       <c r="Y85" s="36"/>
       <c r="Z85" s="37"/>
-      <c r="AA85" s="83" t="s">
+      <c r="AA85" s="82" t="s">
         <v>328</v>
       </c>
       <c r="AB85" s="36"/>
@@ -58488,7 +58517,7 @@
       <c r="E86" s="36"/>
       <c r="F86" s="36"/>
       <c r="G86" s="39"/>
-      <c r="H86" s="83" t="s">
+      <c r="H86" s="82" t="s">
         <v>314</v>
       </c>
       <c r="I86" s="40"/>
@@ -58497,7 +58526,7 @@
       <c r="L86" s="35"/>
       <c r="M86" s="36"/>
       <c r="N86" s="37"/>
-      <c r="O86" s="83" t="s">
+      <c r="O86" s="82" t="s">
         <v>340</v>
       </c>
       <c r="P86" s="36"/>
@@ -58515,7 +58544,7 @@
       <c r="X86" s="36"/>
       <c r="Y86" s="36"/>
       <c r="Z86" s="37"/>
-      <c r="AA86" s="83" t="s">
+      <c r="AA86" s="82" t="s">
         <v>329</v>
       </c>
       <c r="AB86" s="36"/>
@@ -58544,7 +58573,7 @@
       <c r="E87" s="36"/>
       <c r="F87" s="36"/>
       <c r="G87" s="39"/>
-      <c r="H87" s="83" t="s">
+      <c r="H87" s="82" t="s">
         <v>315</v>
       </c>
       <c r="I87" s="40"/>
@@ -58571,7 +58600,7 @@
       <c r="X87" s="36"/>
       <c r="Y87" s="36"/>
       <c r="Z87" s="37"/>
-      <c r="AA87" s="83" t="s">
+      <c r="AA87" s="82" t="s">
         <v>330</v>
       </c>
       <c r="AB87" s="36"/>
@@ -58600,7 +58629,7 @@
       <c r="E88" s="36"/>
       <c r="F88" s="36"/>
       <c r="G88" s="39"/>
-      <c r="H88" s="83" t="s">
+      <c r="H88" s="82" t="s">
         <v>316</v>
       </c>
       <c r="I88" s="40"/>
@@ -58609,7 +58638,7 @@
       <c r="L88" s="35"/>
       <c r="M88" s="36"/>
       <c r="N88" s="37"/>
-      <c r="O88" s="83" t="s">
+      <c r="O88" s="82" t="s">
         <v>340</v>
       </c>
       <c r="P88" s="36"/>
@@ -58627,7 +58656,7 @@
       <c r="X88" s="36"/>
       <c r="Y88" s="36"/>
       <c r="Z88" s="37"/>
-      <c r="AA88" s="83" t="s">
+      <c r="AA88" s="82" t="s">
         <v>331</v>
       </c>
       <c r="AB88" s="36"/>
@@ -58656,7 +58685,7 @@
       <c r="E89" s="36"/>
       <c r="F89" s="36"/>
       <c r="G89" s="39"/>
-      <c r="H89" s="83" t="s">
+      <c r="H89" s="82" t="s">
         <v>317</v>
       </c>
       <c r="I89" s="40"/>
@@ -58665,7 +58694,7 @@
       <c r="L89" s="35"/>
       <c r="M89" s="36"/>
       <c r="N89" s="37"/>
-      <c r="O89" s="83" t="s">
+      <c r="O89" s="82" t="s">
         <v>340</v>
       </c>
       <c r="P89" s="36"/>
@@ -58683,7 +58712,7 @@
       <c r="X89" s="36"/>
       <c r="Y89" s="36"/>
       <c r="Z89" s="37"/>
-      <c r="AA89" s="83" t="s">
+      <c r="AA89" s="82" t="s">
         <v>332</v>
       </c>
       <c r="AB89" s="36"/>
@@ -58721,7 +58750,7 @@
       <c r="L90" s="35"/>
       <c r="M90" s="36"/>
       <c r="N90" s="37"/>
-      <c r="O90" s="83" t="s">
+      <c r="O90" s="82" t="s">
         <v>340</v>
       </c>
       <c r="P90" s="36"/>
@@ -58739,7 +58768,7 @@
       <c r="X90" s="36"/>
       <c r="Y90" s="36"/>
       <c r="Z90" s="37"/>
-      <c r="AA90" s="83" t="s">
+      <c r="AA90" s="82" t="s">
         <v>333</v>
       </c>
       <c r="AB90" s="36"/>
@@ -58777,7 +58806,7 @@
       <c r="L91" s="35"/>
       <c r="M91" s="36"/>
       <c r="N91" s="37"/>
-      <c r="O91" s="83" t="s">
+      <c r="O91" s="82" t="s">
         <v>340</v>
       </c>
       <c r="P91" s="36"/>
@@ -58795,7 +58824,7 @@
       <c r="X91" s="36"/>
       <c r="Y91" s="36"/>
       <c r="Z91" s="37"/>
-      <c r="AA91" s="83" t="s">
+      <c r="AA91" s="82" t="s">
         <v>334</v>
       </c>
       <c r="AB91" s="36"/>
@@ -58833,7 +58862,7 @@
       <c r="L92" s="35"/>
       <c r="M92" s="36"/>
       <c r="N92" s="37"/>
-      <c r="O92" s="83" t="s">
+      <c r="O92" s="82" t="s">
         <v>340</v>
       </c>
       <c r="P92" s="36"/>
@@ -58851,7 +58880,7 @@
       <c r="X92" s="36"/>
       <c r="Y92" s="36"/>
       <c r="Z92" s="37"/>
-      <c r="AA92" s="83" t="s">
+      <c r="AA92" s="82" t="s">
         <v>335</v>
       </c>
       <c r="AB92" s="36"/>
@@ -58880,7 +58909,7 @@
       <c r="E93" s="36"/>
       <c r="F93" s="36"/>
       <c r="G93" s="39"/>
-      <c r="H93" s="83" t="s">
+      <c r="H93" s="82" t="s">
         <v>321</v>
       </c>
       <c r="I93" s="40"/>
@@ -58889,7 +58918,7 @@
       <c r="L93" s="35"/>
       <c r="M93" s="36"/>
       <c r="N93" s="37"/>
-      <c r="O93" s="83" t="s">
+      <c r="O93" s="82" t="s">
         <v>340</v>
       </c>
       <c r="P93" s="36"/>
@@ -58907,7 +58936,7 @@
       <c r="X93" s="36"/>
       <c r="Y93" s="36"/>
       <c r="Z93" s="37"/>
-      <c r="AA93" s="83" t="s">
+      <c r="AA93" s="82" t="s">
         <v>336</v>
       </c>
       <c r="AB93" s="36"/>
@@ -58936,7 +58965,7 @@
       <c r="E94" s="36"/>
       <c r="F94" s="36"/>
       <c r="G94" s="39"/>
-      <c r="H94" s="83" t="s">
+      <c r="H94" s="82" t="s">
         <v>322</v>
       </c>
       <c r="I94" s="40"/>
@@ -58961,7 +58990,7 @@
       <c r="X94" s="36"/>
       <c r="Y94" s="36"/>
       <c r="Z94" s="37"/>
-      <c r="AA94" s="83" t="s">
+      <c r="AA94" s="82" t="s">
         <v>337</v>
       </c>
       <c r="AB94" s="36"/>
